--- a/choiceset/CGT-choice-set.xlsx
+++ b/choiceset/CGT-choice-set.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sokolhessner/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sokolhessner/Documents/gitrepos/cgt/choiceset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4077D6D7-C266-B145-B791-6B41C9B4FB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAB0708-400F-554B-BA94-154BEDA3E7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26240" yWindow="5320" windowWidth="23500" windowHeight="21600" activeTab="1" xr2:uid="{E15612F3-A512-0C40-9D40-3CEEBC727A0B}"/>
   </bookViews>
@@ -328,13 +328,13 @@
     <t>Risky Loss</t>
   </si>
   <si>
-    <t>riskygain</t>
+    <t>riskyoption1</t>
   </si>
   <si>
-    <t>riskyloss</t>
+    <t>riskyoption2</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>safeoption</t>
   </si>
 </sst>
 </file>
@@ -4964,7 +4964,7 @@
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117">
         <f t="shared" ref="B117:B145" ca="1" si="5">RAND()</f>
-        <v>0.23725521060658905</v>
+        <v>0.96887921167867375</v>
       </c>
       <c r="C117">
         <v>1.5000000000000007</v>
@@ -5009,7 +5009,7 @@
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58563647467581992</v>
+        <v>0.18832318462227482</v>
       </c>
       <c r="C118">
         <v>0.3</v>
@@ -5066,7 +5066,7 @@
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90814131305946211</v>
+        <v>0.2200152718373859</v>
       </c>
       <c r="C119">
         <v>0.6</v>
@@ -5123,7 +5123,7 @@
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64635840483528151</v>
+        <v>0.20619916735249511</v>
       </c>
       <c r="C120">
         <v>1.2500000000000004</v>
@@ -5180,7 +5180,7 @@
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20284362693573121</v>
+        <v>0.99631000316279295</v>
       </c>
       <c r="C121">
         <v>0.44999999999999996</v>
@@ -5237,7 +5237,7 @@
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91901145239240123</v>
+        <v>0.14603571602177079</v>
       </c>
       <c r="C122">
         <v>0.35</v>
@@ -5294,7 +5294,7 @@
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49405191598502496</v>
+        <v>9.5079458779280701E-2</v>
       </c>
       <c r="C123">
         <v>0.49999999999999994</v>
@@ -5351,7 +5351,7 @@
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51730466678039544</v>
+        <v>0.93217260410999636</v>
       </c>
       <c r="C124">
         <v>0.65</v>
@@ -5408,7 +5408,7 @@
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58280441220219292</v>
+        <v>1.260697104503905E-2</v>
       </c>
       <c r="C125">
         <v>0.39999999999999997</v>
@@ -5465,7 +5465,7 @@
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95299284705067611</v>
+        <v>0.16477826772561899</v>
       </c>
       <c r="C126">
         <v>0.95000000000000029</v>
@@ -5522,7 +5522,7 @@
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55201845140875538</v>
+        <v>0.82128148957462843</v>
       </c>
       <c r="C127">
         <v>1.4500000000000006</v>
@@ -5579,7 +5579,7 @@
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86514792850433642</v>
+        <v>0.99372556269615264</v>
       </c>
       <c r="C128">
         <v>1.3500000000000005</v>
@@ -5636,7 +5636,7 @@
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B129">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18922252845672094</v>
+        <v>0.26451507065279678</v>
       </c>
       <c r="C129">
         <v>1.6000000000000008</v>
@@ -5693,7 +5693,7 @@
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B130">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37578736358201303</v>
+        <v>0.87148050618439443</v>
       </c>
       <c r="C130">
         <v>1.1500000000000004</v>
@@ -5750,7 +5750,7 @@
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B131">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30967204662363035</v>
+        <v>0.72395990447366843</v>
       </c>
       <c r="C131">
         <v>0.8500000000000002</v>
@@ -5807,7 +5807,7 @@
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B132">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26960763185612768</v>
+        <v>6.3854756775634125E-2</v>
       </c>
       <c r="C132">
         <v>1.5500000000000007</v>
@@ -5864,7 +5864,7 @@
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B133">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26568802517018641</v>
+        <v>0.5599790346128698</v>
       </c>
       <c r="C133">
         <v>1.7000000000000008</v>
@@ -5921,7 +5921,7 @@
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B134">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8849374091192953</v>
+        <v>0.82342077378461886</v>
       </c>
       <c r="C134">
         <v>1.0500000000000003</v>
@@ -5978,7 +5978,7 @@
     <row r="135" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B135">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35805742238797911</v>
+        <v>0.46530111740090574</v>
       </c>
       <c r="C135">
         <v>1.2000000000000004</v>
@@ -6035,7 +6035,7 @@
     <row r="136" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B136">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76116279334304415</v>
+        <v>0.63508953516320266</v>
       </c>
       <c r="C136">
         <v>0.90000000000000024</v>
@@ -6092,7 +6092,7 @@
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B137">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96951700785514527</v>
+        <v>0.29373505735066407</v>
       </c>
       <c r="C137">
         <v>1.4000000000000006</v>
@@ -6149,7 +6149,7 @@
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B138">
         <f t="shared" ca="1" si="5"/>
-        <v>9.4577235631569945E-3</v>
+        <v>0.62010386652635052</v>
       </c>
       <c r="C138">
         <v>0.70000000000000007</v>
@@ -6206,7 +6206,7 @@
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B139">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75125090350723367</v>
+        <v>0.13699677021959189</v>
       </c>
       <c r="C139">
         <v>1.1000000000000003</v>
@@ -6263,7 +6263,7 @@
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B140">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63479196116623104</v>
+        <v>0.89038622169188775</v>
       </c>
       <c r="C140">
         <v>0.54999999999999993</v>
@@ -6320,7 +6320,7 @@
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B141">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28956270848984422</v>
+        <v>0.43765449850423721</v>
       </c>
       <c r="C141">
         <v>1.3000000000000005</v>
@@ -6377,7 +6377,7 @@
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B142">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10711062279398564</v>
+        <v>0.65613011244051722</v>
       </c>
       <c r="C142">
         <v>1.0000000000000002</v>
@@ -6434,7 +6434,7 @@
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B143">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62821541518329382</v>
+        <v>0.44961221749595315</v>
       </c>
       <c r="C143">
         <v>0.75000000000000011</v>
@@ -6491,7 +6491,7 @@
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B144">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61997889454203237</v>
+        <v>0.7478882410537262</v>
       </c>
       <c r="C144">
         <v>1.6500000000000008</v>
@@ -6548,7 +6548,7 @@
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B145">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59312536633942647</v>
+        <v>0.69830657780201266</v>
       </c>
       <c r="C145">
         <v>0.80000000000000016</v>
@@ -7172,7 +7172,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/choiceset/CGT-choice-set.xlsx
+++ b/choiceset/CGT-choice-set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sokolhessner/Documents/gitrepos/cgt/choiceset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAB0708-400F-554B-BA94-154BEDA3E7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211248E2-3946-4147-97EB-786D3993F4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26240" yWindow="5320" windowWidth="23500" windowHeight="21600" activeTab="1" xr2:uid="{E15612F3-A512-0C40-9D40-3CEEBC727A0B}"/>
+    <workbookView xWindow="-26240" yWindow="5320" windowWidth="23500" windowHeight="21600" xr2:uid="{E15612F3-A512-0C40-9D40-3CEEBC727A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="gain only generation" sheetId="1" r:id="rId1"/>
@@ -3231,7 +3231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27200891-336F-B345-AC84-3456DD08CA54}">
   <dimension ref="A1:X153"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:S51"/>
     </sheetView>
   </sheetViews>
@@ -4964,7 +4964,7 @@
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117">
         <f t="shared" ref="B117:B145" ca="1" si="5">RAND()</f>
-        <v>0.96887921167867375</v>
+        <v>0.56603751116800616</v>
       </c>
       <c r="C117">
         <v>1.5000000000000007</v>
@@ -5009,7 +5009,7 @@
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18832318462227482</v>
+        <v>0.55328399024828168</v>
       </c>
       <c r="C118">
         <v>0.3</v>
@@ -5066,7 +5066,7 @@
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2200152718373859</v>
+        <v>0.45381505141978518</v>
       </c>
       <c r="C119">
         <v>0.6</v>
@@ -5123,7 +5123,7 @@
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20619916735249511</v>
+        <v>0.69327744063328545</v>
       </c>
       <c r="C120">
         <v>1.2500000000000004</v>
@@ -5180,7 +5180,7 @@
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99631000316279295</v>
+        <v>0.66699430523286796</v>
       </c>
       <c r="C121">
         <v>0.44999999999999996</v>
@@ -5237,7 +5237,7 @@
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14603571602177079</v>
+        <v>0.24095522078560916</v>
       </c>
       <c r="C122">
         <v>0.35</v>
@@ -5294,7 +5294,7 @@
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123">
         <f t="shared" ca="1" si="5"/>
-        <v>9.5079458779280701E-2</v>
+        <v>0.47372513688284712</v>
       </c>
       <c r="C123">
         <v>0.49999999999999994</v>
@@ -5351,7 +5351,7 @@
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93217260410999636</v>
+        <v>0.90974247759169191</v>
       </c>
       <c r="C124">
         <v>0.65</v>
@@ -5408,7 +5408,7 @@
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125">
         <f t="shared" ca="1" si="5"/>
-        <v>1.260697104503905E-2</v>
+        <v>1.1996725714133127E-2</v>
       </c>
       <c r="C125">
         <v>0.39999999999999997</v>
@@ -5465,7 +5465,7 @@
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16477826772561899</v>
+        <v>0.53945036752321307</v>
       </c>
       <c r="C126">
         <v>0.95000000000000029</v>
@@ -5522,7 +5522,7 @@
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82128148957462843</v>
+        <v>0.67962653142321316</v>
       </c>
       <c r="C127">
         <v>1.4500000000000006</v>
@@ -5579,7 +5579,7 @@
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99372556269615264</v>
+        <v>0.25836914681044421</v>
       </c>
       <c r="C128">
         <v>1.3500000000000005</v>
@@ -5636,7 +5636,7 @@
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B129">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26451507065279678</v>
+        <v>0.86066643931423226</v>
       </c>
       <c r="C129">
         <v>1.6000000000000008</v>
@@ -5693,7 +5693,7 @@
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B130">
         <f t="shared" ca="1" si="5"/>
-        <v>0.87148050618439443</v>
+        <v>0.50807038575554497</v>
       </c>
       <c r="C130">
         <v>1.1500000000000004</v>
@@ -5750,7 +5750,7 @@
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B131">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72395990447366843</v>
+        <v>0.69832150970532003</v>
       </c>
       <c r="C131">
         <v>0.8500000000000002</v>
@@ -5807,7 +5807,7 @@
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B132">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3854756775634125E-2</v>
+        <v>0.16451918191499804</v>
       </c>
       <c r="C132">
         <v>1.5500000000000007</v>
@@ -5864,7 +5864,7 @@
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B133">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5599790346128698</v>
+        <v>0.48015913719437953</v>
       </c>
       <c r="C133">
         <v>1.7000000000000008</v>
@@ -5921,7 +5921,7 @@
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B134">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82342077378461886</v>
+        <v>0.89513039379570991</v>
       </c>
       <c r="C134">
         <v>1.0500000000000003</v>
@@ -5978,7 +5978,7 @@
     <row r="135" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B135">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46530111740090574</v>
+        <v>7.568078544835799E-2</v>
       </c>
       <c r="C135">
         <v>1.2000000000000004</v>
@@ -6035,7 +6035,7 @@
     <row r="136" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B136">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63508953516320266</v>
+        <v>0.43098443314671886</v>
       </c>
       <c r="C136">
         <v>0.90000000000000024</v>
@@ -6092,7 +6092,7 @@
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B137">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29373505735066407</v>
+        <v>0.38361712827910976</v>
       </c>
       <c r="C137">
         <v>1.4000000000000006</v>
@@ -6149,7 +6149,7 @@
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B138">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62010386652635052</v>
+        <v>0.41212635290362609</v>
       </c>
       <c r="C138">
         <v>0.70000000000000007</v>
@@ -6206,7 +6206,7 @@
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B139">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13699677021959189</v>
+        <v>0.64161250048760032</v>
       </c>
       <c r="C139">
         <v>1.1000000000000003</v>
@@ -6263,7 +6263,7 @@
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B140">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89038622169188775</v>
+        <v>0.48809907032734745</v>
       </c>
       <c r="C140">
         <v>0.54999999999999993</v>
@@ -6320,7 +6320,7 @@
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B141">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43765449850423721</v>
+        <v>0.26269262661374315</v>
       </c>
       <c r="C141">
         <v>1.3000000000000005</v>
@@ -6377,7 +6377,7 @@
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B142">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65613011244051722</v>
+        <v>0.28389593616248776</v>
       </c>
       <c r="C142">
         <v>1.0000000000000002</v>
@@ -6434,7 +6434,7 @@
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B143">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44961221749595315</v>
+        <v>0.14925560948403915</v>
       </c>
       <c r="C143">
         <v>0.75000000000000011</v>
@@ -6491,7 +6491,7 @@
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B144">
         <f t="shared" ca="1" si="5"/>
-        <v>0.7478882410537262</v>
+        <v>0.96871813682770946</v>
       </c>
       <c r="C144">
         <v>1.6500000000000008</v>
@@ -6548,7 +6548,7 @@
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B145">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69830657780201266</v>
+        <v>9.4389894193820378E-3</v>
       </c>
       <c r="C145">
         <v>0.80000000000000016</v>
@@ -7171,7 +7171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D35742-6F8C-9D4D-9CD4-562D29999E0E}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
